--- a/Data/Processed/Angiosperms/missing_powo_ipni/Sapindaceae.xlsx
+++ b/Data/Processed/Angiosperms/missing_powo_ipni/Sapindaceae.xlsx
@@ -5877,7 +5877,7 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -6460,7 +6460,7 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -7153,7 +7153,7 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -10651,7 +10651,7 @@
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
@@ -11124,7 +11124,7 @@
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
@@ -12972,7 +12972,7 @@
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
@@ -14215,7 +14215,7 @@
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
@@ -14688,7 +14688,7 @@
       </c>
       <c r="G256" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
@@ -15326,7 +15326,7 @@
       </c>
       <c r="G267" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
@@ -16624,7 +16624,7 @@
       </c>
       <c r="G290" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I290" t="inlineStr">
@@ -16712,7 +16712,7 @@
       </c>
       <c r="G291" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I291" t="inlineStr">
@@ -17625,7 +17625,7 @@
       </c>
       <c r="G307" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
@@ -20023,7 +20023,7 @@
       </c>
       <c r="G350" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I350" t="inlineStr">
@@ -23631,7 +23631,7 @@
       </c>
       <c r="G415" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H415" t="inlineStr">
@@ -23709,7 +23709,7 @@
       </c>
       <c r="G416" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H416" t="inlineStr">
@@ -23719,7 +23719,7 @@
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t xml:space="preserve">Arbeiten Bot. Inst. Königl. Lyceums Hosianum Braunsberg 8: 60. 1926 </t>
+          <t>Arbeiten Bot. Inst. Königl. Lyceums Hosianum Braunsberg 8: 60. 1926</t>
         </is>
       </c>
       <c r="J416" t="b">
@@ -23787,7 +23787,7 @@
       </c>
       <c r="G417" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H417" t="inlineStr">
@@ -23797,7 +23797,7 @@
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denkschr. Kaiserl. Akad. Wiss., Wien. Math.-Naturwiss. Kl. 79: 278. 1908 </t>
+          <t>Denkschr. Kaiserl. Akad. Wiss., Wien. Math.-Naturwiss. Kl. 79: 278. 1908</t>
         </is>
       </c>
       <c r="J417" t="b">
@@ -23865,7 +23865,7 @@
       </c>
       <c r="G418" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H418" t="inlineStr">
@@ -23875,7 +23875,7 @@
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denkschr. Kaiserl. Akad. Wiss., Wien. Math.-Naturwiss. Kl. 79: 277. 1908 </t>
+          <t>Denkschr. Kaiserl. Akad. Wiss., Wien. Math.-Naturwiss. Kl. 79: 277. 1908</t>
         </is>
       </c>
       <c r="J418" t="b">
@@ -23943,7 +23943,7 @@
       </c>
       <c r="G419" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H419" t="inlineStr">
@@ -23953,7 +23953,7 @@
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pflanzenr. (Engler) [Heft 91] 4, Fam. 141, pt. 1: 169. 1928 </t>
+          <t>Pflanzenr. (Engler) [Heft 91] 4, Fam. 141, pt. 1: 169. 1928</t>
         </is>
       </c>
       <c r="J419" t="b">
@@ -24021,7 +24021,7 @@
       </c>
       <c r="G420" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H420" t="inlineStr">
@@ -24031,7 +24031,7 @@
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Mus. Hist. Nat. (Paris) 31: 478. 1925; 32: 411. 1926 </t>
+          <t>Bull. Mus. Hist. Nat. (Paris) 31: 478. 1925; 32: 411. 1926</t>
         </is>
       </c>
       <c r="J420" t="b">
@@ -24099,7 +24099,7 @@
       </c>
       <c r="G421" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H421" t="inlineStr">
@@ -24109,7 +24109,7 @@
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t xml:space="preserve">Syst. Veg., ed. 16 [Sprengel] 2: 220. 1825 [Jan-May 1825] </t>
+          <t>Syst. Veg., ed. 16 [Sprengel] 2: 220. 1825 [Jan-May 1825]</t>
         </is>
       </c>
       <c r="J421" t="b">
@@ -24177,7 +24177,7 @@
       </c>
       <c r="G422" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H422" t="inlineStr">
@@ -24187,7 +24187,7 @@
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bradea 5: 63, fig. 1988 </t>
+          <t>Bradea 5: 63, fig. 1988</t>
         </is>
       </c>
       <c r="J422" t="b">
